--- a/biology/Médecine/Périchondre/Périchondre.xlsx
+++ b/biology/Médecine/Périchondre/Périchondre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9richondre</t>
+          <t>Périchondre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périchondre (du grec περί, perí, « autour » et χόνδρος, khóndros, « cartilage ») est une lame de tissu conjonctif qui entoure tous les cartilages sauf le cartilage articulaire et le cartilage fibreux (fibrocartilage).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9richondre</t>
+          <t>Périchondre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périchondre est formé de 2 couches :
 une couche nourricière externe qui est une couche fibreuse de tissu conjonctif dense, richement vascularisée et innervée,
 une couche chondrogène, en contact avec le cartilage, qui est peu vascularisée mais riche en cellules mésenchymateuses.
 Cette dernière couche est constituée de fibres de collagène de type II et de cellules mésenchymateuses. Les fibres pénètrent dans le cartilage sous-jacent pour y ancrer le périchondre.
-Cette zone interne chondrogène est très active en phase de croissance et peut disparaitre par endroit chez l'adulte[1].
+Cette zone interne chondrogène est très active en phase de croissance et peut disparaitre par endroit chez l'adulte.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9richondre</t>
+          <t>Périchondre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le périchondre permet :
 de nourrir le cartilage sous-jacent,
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9richondre</t>
+          <t>Périchondre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périchondre, lors de l'ossification enchondrale, se convertit en périoste.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9richondre</t>
+          <t>Périchondre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le périchondre ne recouvre pas les cartilages articulaires, la régénération de ce type de cartilage est donc difficile, voire inexistante[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le périchondre ne recouvre pas les cartilages articulaires, la régénération de ce type de cartilage est donc difficile, voire inexistante.
 </t>
         </is>
       </c>
